--- a/raw_data/douyin_raw_data/douyin_data/douyin_7073782200499571999_2022_11_12_21_56_51.xlsx
+++ b/raw_data/douyin_raw_data/douyin_data/douyin_7073782200499571999_2022_11_12_21_56_51.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E205"/>
+  <dimension ref="A1:I205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,22 @@
           <t>7月前</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G1" t="n">
+        <v>0.2853</v>
+      </c>
+      <c r="H1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>ltp000879e3@dx769b16dffc4b1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -474,6 +490,22 @@
           <t>8月前</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.7954</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>ltp000879e4@dx769b16dffc4c1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -501,6 +533,22 @@
           <t>8月前</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8905999999999999</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>ltp000879e6@dx769b16dffc4c1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -528,6 +576,22 @@
           <t>7月前</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.7812</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>ltp000879e8@dx769b16dffc4c1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -555,6 +619,22 @@
           <t>7月前</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3901</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>ltp000879e9@dx769b16dffc4c1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -582,6 +662,22 @@
           <t>8月前</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5718</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>ltp000879ea@dx769b16dffc4c1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -609,6 +705,22 @@
           <t>7月前</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.3922</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>ltp000879ec@dx769b16dffc4d1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -636,6 +748,22 @@
           <t>7月前</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0.7192</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>ltp000879f0@dx769b16dffc4d1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -663,6 +791,22 @@
           <t>8月前</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0.8705000000000001</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>ltp000879f2@dx769b16dffc4d1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -690,6 +834,22 @@
           <t>6月前</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0.3832</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>ltp000879f3@dx769b16dffc4e1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -717,6 +877,22 @@
           <t>6月前</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0.1691</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>ltp000879f7@dx769b16dffc4e1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -744,6 +920,22 @@
           <t>1月前</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0.5726</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>ltp000879f8@dx769b16dffc4e1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -771,6 +963,22 @@
           <t>6月前</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0.629</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>ltp000879fa@dx769b16dffc4e1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -798,6 +1006,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0.5212</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>ltp000879fb@dx769b16dffc4f1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -825,6 +1049,22 @@
           <t>4月前</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0.3721</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>ltp000879fc@dx769b16dffc4f1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -852,6 +1092,22 @@
           <t>5天前</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0.7799</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>ltp000879fe@dx769b16dffc4f1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -879,6 +1135,22 @@
           <t>3天前</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0.8721</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>ltp00087a01@dx769b16dffc4f1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -906,6 +1178,16 @@
           <t>1周前</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>invalid parameter|invalid text</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>ltp00087a03@dx769b16dffc501aba00</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -933,6 +1215,22 @@
           <t>1周前</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0.843</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>ltp00087a04@dx769b16dffc501aba00</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -960,6 +1258,22 @@
           <t>3天前</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0.8103</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>ltp00087a06@dx769b16dffc501aba00</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -987,6 +1301,22 @@
           <t>5天前</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0.3242</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>ltp00087a07@dx769b16dffc501aba00</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1014,6 +1344,22 @@
           <t>5天前</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0.8794</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>ltp00087a08@dx769b16dffc501aba00</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1041,6 +1387,22 @@
           <t>1周前</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0.4641</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>ltp00087a0a@dx769b16dffc511aba00</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1068,6 +1430,22 @@
           <t>1周前</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0.7319</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>ltp00087a0c@dx769b16dffc511aba00</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1095,6 +1473,22 @@
           <t>1周前</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0.8127</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>ltp00087a0f@dx769b16dffc511aba00</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1122,6 +1516,22 @@
           <t>1周前</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0.5291</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>ltp00087a11@dx769b16dffc521aba00</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1149,6 +1559,22 @@
           <t>2周前</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0.4801</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>ltp00087a15@dx769b16dffc521aba00</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1176,6 +1602,22 @@
           <t>2周前</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1636</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>ltp00087a19@dx769b16dffc531aba00</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1203,6 +1645,22 @@
           <t>2周前</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0.1734</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>ltp00087a1a@dx769b16dffc531aba00</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1230,6 +1688,22 @@
           <t>2周前</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0.9303</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>ltp00087a1b@dx769b16dffc531aba00</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1257,6 +1731,22 @@
           <t>2周前</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0.7841</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>ltp00087a1c@dx769b16dffc531aba00</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1284,6 +1774,22 @@
           <t>2周前</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0.3714</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>ltp00087a1d@dx769b16dffc531aba00</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1311,6 +1817,22 @@
           <t>3周前</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0.7519</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>ltp00087a1f@dx769b16dffc541aba00</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1338,6 +1860,22 @@
           <t>3周前</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0.8732</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>ltp00087a20@dx769b16dffc541aba00</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1365,6 +1903,22 @@
           <t>3周前</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0.3402</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>ltp00087a21@dx769b16dffc541aba00</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1392,6 +1946,22 @@
           <t>3周前</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0.9157</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>ltp00087a23@dx769b16dffc541aba00</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1419,6 +1989,22 @@
           <t>3周前</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0.8192</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>ltp00087a24@dx769b16dffc541aba00</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1446,6 +2032,22 @@
           <t>3周前</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0.7523</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>ltp00087a25@dx769b16dffc541aba00</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1473,6 +2075,16 @@
           <t>3周前</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>ltp00087a31@dx769b16dffc551aba00</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1500,6 +2112,22 @@
           <t>4周前</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0.601</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>ltp00087a39@dx769b16dffc551aba00</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1527,6 +2155,22 @@
           <t>4周前</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0.7998</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>ltp00087a55@dx769b16dffc551aba00</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1554,6 +2198,22 @@
           <t>4周前</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0.837</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>ltp00087a63@dx769b16dffc551aba00</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1581,6 +2241,22 @@
           <t>1月前</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0.7706</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>ltp00087a64@dx769b16dffc551aba00</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1608,6 +2284,22 @@
           <t>1月前</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0.8889</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>ltp00087a67@dx769b16dffc561aba00</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1635,6 +2327,22 @@
           <t>1月前</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0.5779</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>ltp00087a6a@dx769b16dffc561aba00</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1662,6 +2370,22 @@
           <t>1月前</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0.5518</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>ltp00087a6b@dx769b16dffc561aba00</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1689,6 +2413,22 @@
           <t>1月前</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0.4485</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>ltp00087a6c@dx769b16dffc561aba00</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1716,6 +2456,22 @@
           <t>1月前</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0.1465</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>ltp00087a6d@dx769b16dffc561aba00</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1743,6 +2499,22 @@
           <t>1月前</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0.6717</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>ltp00087a6e@dx769b16dffc571aba00</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1770,6 +2542,22 @@
           <t>1月前</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0.2177</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>ltp00087a6f@dx769b16dffc571aba00</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1797,6 +2585,22 @@
           <t>1月前</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0.8693</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>ltp00087a72@dx769b16dffc571aba00</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1824,6 +2628,22 @@
           <t>1月前</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0.3306</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>ltp00087a73@dx769b16dffc571aba00</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1851,6 +2671,22 @@
           <t>1月前</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0.9156</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>ltp00087a75@dx769b16dffc581aba00</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1878,6 +2714,22 @@
           <t>1月前</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0.8467</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>ltp00087a77@dx769b16dffc581aba00</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1905,6 +2757,22 @@
           <t>1月前</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0.5852000000000001</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>ltp00087a79@dx769b16dffc581aba00</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1932,6 +2800,22 @@
           <t>1月前</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0.8242</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>ltp00087a7a@dx769b16dffc581aba00</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1959,6 +2843,22 @@
           <t>1月前</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0.7167</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>ltp00087a7b@dx769b16dffc581aba00</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1986,6 +2886,22 @@
           <t>1月前</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0.6788</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>ltp00087a7c@dx769b16dffc591aba00</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2013,6 +2929,22 @@
           <t>1月前</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0.3759</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>ltp00087a7e@dx769b16dffc591aba00</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2040,6 +2972,22 @@
           <t>1月前</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0.9061</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>ltp00087a7f@dx769b16dffc591aba00</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2067,6 +3015,22 @@
           <t>1月前</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0.1598</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>ltp00087a87@dx769b16dffc591aba00</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2094,6 +3058,22 @@
           <t>1月前</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0.8954</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>ltp00087a93@dx769b16dffc5a1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2121,6 +3101,22 @@
           <t>1月前</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>ltp00087aa0@dx769b16dffc5a1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2148,6 +3144,22 @@
           <t>1月前</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0.8042</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>ltp00087aa2@dx769b16dffc5a1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2175,6 +3187,22 @@
           <t>1月前</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0.8606</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>ltp00087aa4@dx769b16dffc5a1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2202,6 +3230,22 @@
           <t>2月前</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0.3381</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>ltp00087aa5@dx769b16dffc5b1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2229,6 +3273,22 @@
           <t>2月前</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0.641</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>ltp00087aa6@dx769b16dffc5b1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2256,6 +3316,22 @@
           <t>2月前</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0.8974</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>ltp00087aa7@dx769b16dffc5b1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2283,6 +3359,22 @@
           <t>2月前</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0.6819</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>ltp00087aa8@dx769b16dffc5b1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2310,6 +3402,22 @@
           <t>2月前</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0.9239000000000001</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>ltp00087aac@dx769b16dffc5b1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2337,6 +3445,22 @@
           <t>2月前</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0.6781</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>ltp00087aae@dx769b16dffc5c1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2364,6 +3488,22 @@
           <t>2月前</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0.1459</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>ltp00087aaf@dx769b16dffc5c1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2391,6 +3531,22 @@
           <t>2月前</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0.8595</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>ltp00087ab0@dx769b16dffc5c1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2418,6 +3574,22 @@
           <t>2月前</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0.9072</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>ltp00087ab1@dx769b16dffc5c1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2445,6 +3617,22 @@
           <t>2月前</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0.7387</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>ltp00087ab3@dx769b16dffc5d1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2472,6 +3660,22 @@
           <t>2月前</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0.1768</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>ltp00087ab5@dx769b16dffc5d1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2499,6 +3703,22 @@
           <t>2月前</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0.849</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>ltp00087ab7@dx769b16dffc5d1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2526,6 +3746,22 @@
           <t>2月前</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0.852</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>ltp00087aba@dx769b16dffc5e1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2553,6 +3789,22 @@
           <t>2月前</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0.2151</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>ltp00087abc@dx769b16dffc5e1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2580,6 +3832,22 @@
           <t>2月前</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0.9089</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>ltp00087abe@dx769b16dffc5e1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2607,6 +3875,22 @@
           <t>2月前</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0.1818</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>ltp00087ac0@dx769b16dffc5e1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2634,6 +3918,22 @@
           <t>2月前</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0.7464</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>ltp00087ac2@dx769b16dffc5f1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2661,6 +3961,22 @@
           <t>2月前</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0.9112</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>ltp00087ac3@dx769b16dffc5f1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2688,6 +4004,22 @@
           <t>2月前</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>0.9149</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>ltp00087ac4@dx769b16dffc5f1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2715,6 +4047,22 @@
           <t>3月前</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0.5014</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>ltp00087ac5@dx769b16dffc5f1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2742,6 +4090,22 @@
           <t>3月前</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0.5019</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>ltp00087ac7@dx769b16dffc5f1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2769,6 +4133,22 @@
           <t>3月前</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0.7226</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>ltp00087ac9@dx769b16dffc601aba00</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2796,6 +4176,22 @@
           <t>3月前</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0.9088000000000001</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>ltp00087acb@dx769b16dffc601aba00</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2823,6 +4219,22 @@
           <t>3月前</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0.8578</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>ltp00087acd@dx769b16dffc601aba00</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2850,6 +4262,22 @@
           <t>3月前</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0.2775</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>ltp00087acf@dx769b16dffc601aba00</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2877,6 +4305,22 @@
           <t>3月前</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0.9005</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>ltp00087ad2@dx769b16dffc601aba00</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2904,6 +4348,22 @@
           <t>3月前</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0.8290999999999999</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>ltp00087ad3@dx769b16dffc611aba00</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2931,6 +4391,22 @@
           <t>3月前</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0.4546</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>ltp00087ad4@dx769b16dffc611aba00</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2958,6 +4434,22 @@
           <t>3月前</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0.3783</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>ltp00087ad5@dx769b16dffc611aba00</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2985,6 +4477,22 @@
           <t>3月前</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0.6471</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>ltp00087ad7@dx769b16dffc611aba00</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3012,6 +4520,22 @@
           <t>3月前</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0.7727000000000001</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>ltp00087ad8@dx769b16dffc611aba00</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3039,6 +4563,22 @@
           <t>3月前</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0.5496</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>ltp00087ada@dx769b16dffc621aba00</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3066,6 +4606,22 @@
           <t>3月前</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0.3365</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>ltp00087adb@dx769b16dffc621aba00</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3093,9 +4649,24 @@
           <t>3月前</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0.2488</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>ltp00087adc@dx769b16dffc621aba00</t>
+        </is>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr"/>
       <c r="B100" t="inlineStr">
         <is>
           <t>@姚妹儿 查了半天就这个最好了，我是不是学习摄影了该</t>
@@ -3114,6 +4685,22 @@
       <c r="E100" t="inlineStr">
         <is>
           <t>3月前</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0.6544</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>ltp00087ade@dx769b16dffc631aba00</t>
         </is>
       </c>
     </row>
@@ -3143,6 +4730,22 @@
           <t>3月前</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>ltp00087ae0@dx769b16dffc631aba00</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3170,6 +4773,22 @@
           <t>3月前</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0.7057</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>ltp00087ae1@dx769b16dffc641aba00</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3197,6 +4816,22 @@
           <t>3月前</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0.3861</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>ltp00087ae4@dx769b16dffc641aba00</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3224,6 +4859,16 @@
           <t>3月前</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>invalid parameter|invalid text</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>ltp00087ae6@dx769b16dffc641aba00</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3251,6 +4896,22 @@
           <t>3月前</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0.2326</v>
+      </c>
+      <c r="H105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>ltp00087ae7@dx769b16dffc641aba00</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3278,6 +4939,22 @@
           <t>3月前</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>0.1383</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>ltp00087ae8@dx769b16dffc641aba00</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3305,6 +4982,22 @@
           <t>3月前</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>ltp00087aea@dx769b16dffc651aba00</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3332,6 +5025,22 @@
           <t>3月前</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0.5706</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>ltp00087aec@dx769b16dffc651aba00</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3359,6 +5068,22 @@
           <t>4月前</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>0.9015</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>ltp00087aed@dx769b16dffc651aba00</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3386,6 +5111,22 @@
           <t>4月前</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>0.4356</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>ltp00087aef@dx769b16dffc651aba00</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3413,6 +5154,22 @@
           <t>4月前</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>0.8493000000000001</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>ltp00087af0@dx769b16dffc661aba00</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3440,6 +5197,22 @@
           <t>4月前</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>0.9206</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>ltp00087af2@dx769b16dffc661aba00</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3467,6 +5240,22 @@
           <t>4月前</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>0.4943</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>ltp00087af3@dx769b16dffc661aba00</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3494,6 +5283,22 @@
           <t>4月前</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>0.9212</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>ltp00087af4@dx769b16dffc661aba00</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3521,6 +5326,22 @@
           <t>4月前</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0.7522</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>ltp00087af7@dx769b16dffc661aba00</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3548,6 +5369,22 @@
           <t>4月前</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0.8945</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>ltp00087af8@dx769b16dffc671aba00</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3575,6 +5412,22 @@
           <t>4月前</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>ltp00087af9@dx769b16dffc671aba00</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3602,6 +5455,22 @@
           <t>4月前</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>0.3042</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>ltp00087afa@dx769b16dffc671aba00</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3629,6 +5498,22 @@
           <t>4月前</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0.3223</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>ltp00087afc@dx769b16dffc671aba00</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3656,6 +5541,22 @@
           <t>4月前</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0.8214</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>ltp00087afd@dx769b16dffc681aba00</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3683,6 +5584,22 @@
           <t>4月前</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0.9004</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>ltp00087afe@dx769b16dffc681aba00</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3710,6 +5627,22 @@
           <t>4月前</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>0.3666</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>ltp00087aff@dx769b16dffc681aba00</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3737,6 +5670,22 @@
           <t>4月前</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>0.9009</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>ltp00087b01@dx769b16dffc691aba00</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3764,6 +5713,22 @@
           <t>4月前</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>ltp00087b04@dx769b16dffc691aba00</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3791,6 +5756,16 @@
           <t>4月前</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>invalid parameter|invalid text</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>ltp00087b05@dx769b16dffc691aba00</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3818,6 +5793,22 @@
           <t>4月前</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>0.3652</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>ltp00087b06@dx769b16dffc691aba00</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3845,6 +5836,22 @@
           <t>4月前</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>ltp00087b09@dx769b16dffc691aba00</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3872,6 +5879,22 @@
           <t>4月前</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>ltp00087b0b@dx769b16dffc691aba00</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3899,6 +5922,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>0.8787</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>ltp00087b0e@dx769b16dffc6a1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3926,6 +5965,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>0.4787</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>ltp00087b11@dx769b16dffc6a1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3953,6 +6008,16 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>invalid parameter|invalid text</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>ltp00087b12@dx769b16dffc6a1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3980,6 +6045,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>0.6064000000000001</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>ltp00087b14@dx769b16dffc6a1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4007,6 +6088,16 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>invalid parameter|invalid text</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>ltp00087b1f@dx769b16dffc6a1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4034,6 +6125,16 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>ltp00087b24@dx769b16dffc6a1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4061,9 +6162,24 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>0.7804</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>ltp00087b29@dx769b16dffc6a1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr"/>
       <c r="B136" t="inlineStr">
         <is>
           <t>@云雀 我也想带着头纱跟你去海边</t>
@@ -4082,6 +6198,22 @@
       <c r="E136" t="inlineStr">
         <is>
           <t>5月前</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>0.7867</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>ltp00087b35@dx769b16dffc6b1aba00</t>
         </is>
       </c>
     </row>
@@ -4111,6 +6243,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>0.3259</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>ltp00087b37@dx769b16dffc6b1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4138,6 +6286,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>0.6025</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>ltp00087b38@dx769b16dffc6b1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4165,6 +6329,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>0.8985</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>ltp00087b39@dx769b16dffc6b1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4192,6 +6372,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>0.9223</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>ltp00087b3c@dx769b16dffc6c1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4219,6 +6415,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>0.4352</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>ltp00087b3d@dx769b16dffc6c1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4246,6 +6458,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>0.6887</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>ltp00087b40@dx769b16dffc6d1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4273,6 +6501,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>ltp00087b41@dx769b16dffc6d1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4300,6 +6544,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>0.6998</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>ltp00087b43@dx769b16dffc6d1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4327,6 +6587,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>ltp00087b45@dx769b16dffc6e1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4354,6 +6630,16 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>invalid parameter|invalid text</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>ltp00087b46@dx769b16dffc6e1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4381,6 +6667,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>0.1781</v>
+      </c>
+      <c r="H147" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>ltp00087b47@dx769b16dffc6e1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4408,6 +6710,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>0.8558</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>ltp00087b48@dx769b16dffc6e1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4435,6 +6753,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>0.7812</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>ltp00087b49@dx769b16dffc6e1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4462,6 +6796,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>0.8863</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>ltp00087b4a@dx769b16dffc6f1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4489,6 +6839,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>0.9147</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>ltp00087b4b@dx769b16dffc6f1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4516,6 +6882,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>0.7897999999999999</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>ltp00087b4d@dx769b16dffc6f1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4543,6 +6925,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>0.3976</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>ltp00087b4e@dx769b16dffc6f1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4570,6 +6968,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>ltp00087b51@dx769b16dffc6f1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4597,6 +7011,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>0.9137999999999999</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>ltp00087b52@dx769b16dffc701aba00</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4624,6 +7054,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>0.1695</v>
+      </c>
+      <c r="H156" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>ltp00087b54@dx769b16dffc701aba00</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4651,6 +7097,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>0.1631</v>
+      </c>
+      <c r="H157" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>ltp00087b55@dx769b16dffc701aba00</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4678,6 +7140,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>0.8216</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>ltp00087b57@dx769b16dffc701aba00</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4705,6 +7183,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>0.9015</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>ltp00087b59@dx769b16dffc701aba00</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4732,6 +7226,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>0.5665</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>ltp00087b5b@dx769b16dffc711aba00</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4759,6 +7269,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>0.8663999999999999</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>ltp00087b5d@dx769b16dffc711aba00</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4786,6 +7312,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>0.4364</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>ltp00087b5f@dx769b16dffc711aba00</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4813,9 +7355,24 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>0.3565</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>ltp00087b60@dx769b16dffc711aba00</t>
+        </is>
+      </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr"/>
       <c r="B164" t="inlineStr">
         <is>
           <t>@锕故 给我买头纱</t>
@@ -4834,6 +7391,22 @@
       <c r="E164" t="inlineStr">
         <is>
           <t>5月前</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>0.2383</v>
+      </c>
+      <c r="H164" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>ltp00087b61@dx769b16dffc711aba00</t>
         </is>
       </c>
     </row>
@@ -4863,6 +7436,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>ltp00087b62@dx769b16dffc721aba00</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4890,6 +7479,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>0.9159</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>ltp00087b64@dx769b16dffc721aba00</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4917,6 +7522,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>0.8462</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>ltp00087b67@dx769b16dffc721aba00</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4944,6 +7565,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>0.4753</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>ltp00087b69@dx769b16dffc721aba00</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4971,6 +7608,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="H169" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>ltp00087b6b@dx769b16dffc721aba00</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -4998,6 +7651,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>0.2714</v>
+      </c>
+      <c r="H170" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>ltp00087b6d@dx769b16dffc731aba00</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5025,6 +7694,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>0.4027</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>ltp00087b6e@dx769b16dffc731aba00</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5052,6 +7737,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>0.4796</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>ltp00087b6f@dx769b16dffc731aba00</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5079,6 +7780,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>0.8869</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>ltp00087b71@dx769b16dffc731aba00</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5106,6 +7823,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>0.8457</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>ltp00087b72@dx769b16dffc731aba00</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5133,6 +7866,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>0.4732</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>ltp00087b73@dx769b16dffc731aba00</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5160,6 +7909,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>0.9123</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>ltp00087b74@dx769b16dffc741aba00</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5187,6 +7952,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>0.9097</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>ltp00087b75@dx769b16dffc741aba00</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5214,6 +7995,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>0.7514999999999999</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>ltp00087b77@dx769b16dffc741aba00</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5241,6 +8038,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>0.5982</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>ltp00087b79@dx769b16dffc751aba00</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -5268,6 +8081,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>0.906</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>ltp00087b7a@dx769b16dffc751aba00</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -5295,6 +8124,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>0.9258999999999999</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>ltp00087b7b@dx769b16dffc751aba00</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5322,6 +8167,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>0.7605</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>ltp00087b7d@dx769b16dffc761aba00</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -5349,9 +8210,24 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>0.5491</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>ltp00087b7f@dx769b16dffc761aba00</t>
+        </is>
+      </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr"/>
       <c r="B184" t="inlineStr">
         <is>
           <t>@z.' 幕了</t>
@@ -5370,6 +8246,22 @@
       <c r="E184" t="inlineStr">
         <is>
           <t>5月前</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>0.1827</v>
+      </c>
+      <c r="H184" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>ltp00087b81@dx769b16dffc761aba00</t>
         </is>
       </c>
     </row>
@@ -5399,6 +8291,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>ltp00087b82@dx769b16dffc761aba00</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -5426,6 +8334,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>0.9018</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>ltp00087b83@dx769b16dffc761aba00</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -5453,6 +8377,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>0.8132</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>ltp00087b84@dx769b16dffc771aba00</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -5480,6 +8420,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>0.8938</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>ltp00087b86@dx769b16dffc771aba00</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -5507,6 +8463,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>0.8921</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>ltp00087b88@dx769b16dffc771aba00</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -5534,6 +8506,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>0.7403</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>ltp00087b8a@dx769b16dffc771aba00</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -5561,6 +8549,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>0.9216</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>ltp00087b8b@dx769b16dffc771aba00</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -5588,6 +8592,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>0.9062</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>ltp00087b8c@dx769b16dffc771aba00</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -5615,6 +8635,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>0.3382</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>ltp00087b8e@dx769b16dffc781aba00</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -5642,6 +8678,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>0.8365</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>ltp00087b91@dx769b16dffc781aba00</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -5669,6 +8721,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>0.4323</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>ltp00087b93@dx769b16dffc781aba00</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -5676,7 +8744,6 @@
           <t>907.Y</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr"/>
       <c r="C196" t="inlineStr">
         <is>
           <t>Null</t>
@@ -5690,6 +8757,16 @@
       <c r="E196" t="inlineStr">
         <is>
           <t>5月前</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>invalid parameter|invalid text</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>ltp00087b94@dx769b16dffc781aba00</t>
         </is>
       </c>
     </row>
@@ -5719,6 +8796,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>0.4604</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>ltp00087b95@dx769b16dffc781aba00</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -5746,6 +8839,16 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>invalid parameter|invalid text</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>ltp00087b97@dx769b16dffc791aba00</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -5773,6 +8876,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>0.8949</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>ltp00087b98@dx769b16dffc791aba00</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -5801,6 +8920,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>0.823</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>ltp00087b9b@dx769b16dffc791aba00</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -5828,6 +8963,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G201" t="n">
+        <v>0.4235</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>ltp00087b9f@dx769b16dffc791aba00</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -5855,6 +9006,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G202" t="n">
+        <v>0.8491</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1</v>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>ltp00087ba0@dx769b16dffc791aba00</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -5882,6 +9049,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G203" t="n">
+        <v>0.8354</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>ltp00087ba1@dx769b16dffc791aba00</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -5909,6 +9092,22 @@
           <t>5月前</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G204" t="n">
+        <v>0.8914</v>
+      </c>
+      <c r="H204" t="n">
+        <v>1</v>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>ltp00087ba2@dx769b16dffc7a1aba00</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -5934,6 +9133,22 @@
       <c r="E205" t="inlineStr">
         <is>
           <t>5月前</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>0.8484</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1</v>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>ltp00087ba5@dx769b16dffc7a1aba00</t>
         </is>
       </c>
     </row>

--- a/raw_data/douyin_raw_data/douyin_data/douyin_7073782200499571999_2022_11_12_21_56_51.xlsx
+++ b/raw_data/douyin_raw_data/douyin_data/douyin_7073782200499571999_2022_11_12_21_56_51.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I205"/>
+  <dimension ref="A1:E205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,22 +447,6 @@
           <t>7月前</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G1" t="n">
-        <v>0.2853</v>
-      </c>
-      <c r="H1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>ltp000879e3@dx769b16dffc4b1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -490,22 +474,6 @@
           <t>8月前</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>0.7954</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>ltp000879e4@dx769b16dffc4c1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -533,22 +501,6 @@
           <t>8月前</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0.8905999999999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>ltp000879e6@dx769b16dffc4c1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -576,22 +528,6 @@
           <t>7月前</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0.7812</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>ltp000879e8@dx769b16dffc4c1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -619,22 +555,6 @@
           <t>7月前</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0.3901</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>ltp000879e9@dx769b16dffc4c1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -662,22 +582,6 @@
           <t>8月前</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0.5718</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>ltp000879ea@dx769b16dffc4c1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -705,22 +609,6 @@
           <t>7月前</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0.3922</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>ltp000879ec@dx769b16dffc4d1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -748,22 +636,6 @@
           <t>7月前</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0.7192</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>ltp000879f0@dx769b16dffc4d1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -791,22 +663,6 @@
           <t>8月前</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0.8705000000000001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>ltp000879f2@dx769b16dffc4d1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -834,22 +690,6 @@
           <t>6月前</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>0.3832</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>ltp000879f3@dx769b16dffc4e1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -877,22 +717,6 @@
           <t>6月前</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>0.1691</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>ltp000879f7@dx769b16dffc4e1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -920,22 +744,6 @@
           <t>1月前</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>0.5726</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>ltp000879f8@dx769b16dffc4e1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -963,22 +771,6 @@
           <t>6月前</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>0.629</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>ltp000879fa@dx769b16dffc4e1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1006,22 +798,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>0.5212</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>ltp000879fb@dx769b16dffc4f1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1049,22 +825,6 @@
           <t>4月前</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>0.3721</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>ltp000879fc@dx769b16dffc4f1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1092,22 +852,6 @@
           <t>5天前</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>0.7799</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>ltp000879fe@dx769b16dffc4f1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1135,22 +879,6 @@
           <t>3天前</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>0.8721</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>ltp00087a01@dx769b16dffc4f1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1178,16 +906,6 @@
           <t>1周前</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>invalid parameter|invalid text</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>ltp00087a03@dx769b16dffc501aba00</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1215,22 +933,6 @@
           <t>1周前</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>0.843</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>ltp00087a04@dx769b16dffc501aba00</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1258,22 +960,6 @@
           <t>3天前</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>0.8103</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>ltp00087a06@dx769b16dffc501aba00</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1301,22 +987,6 @@
           <t>5天前</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>0.3242</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>ltp00087a07@dx769b16dffc501aba00</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1344,22 +1014,6 @@
           <t>5天前</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>0.8794</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>ltp00087a08@dx769b16dffc501aba00</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1387,22 +1041,6 @@
           <t>1周前</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>0.4641</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>ltp00087a0a@dx769b16dffc511aba00</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1430,22 +1068,6 @@
           <t>1周前</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>0.7319</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>ltp00087a0c@dx769b16dffc511aba00</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1473,22 +1095,6 @@
           <t>1周前</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>0.8127</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>ltp00087a0f@dx769b16dffc511aba00</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1516,22 +1122,6 @@
           <t>1周前</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>0.5291</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>ltp00087a11@dx769b16dffc521aba00</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1559,22 +1149,6 @@
           <t>2周前</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>0.4801</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>ltp00087a15@dx769b16dffc521aba00</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1602,22 +1176,6 @@
           <t>2周前</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>0.1636</v>
-      </c>
-      <c r="H28" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>ltp00087a19@dx769b16dffc531aba00</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1645,22 +1203,6 @@
           <t>2周前</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>0.1734</v>
-      </c>
-      <c r="H29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>ltp00087a1a@dx769b16dffc531aba00</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1688,22 +1230,6 @@
           <t>2周前</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>0.9303</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>ltp00087a1b@dx769b16dffc531aba00</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1731,22 +1257,6 @@
           <t>2周前</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>0.7841</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>ltp00087a1c@dx769b16dffc531aba00</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1774,22 +1284,6 @@
           <t>2周前</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>0.3714</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>ltp00087a1d@dx769b16dffc531aba00</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1817,22 +1311,6 @@
           <t>3周前</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>0.7519</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>ltp00087a1f@dx769b16dffc541aba00</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1860,22 +1338,6 @@
           <t>3周前</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>0.8732</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>ltp00087a20@dx769b16dffc541aba00</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1903,22 +1365,6 @@
           <t>3周前</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>0.3402</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>ltp00087a21@dx769b16dffc541aba00</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1946,22 +1392,6 @@
           <t>3周前</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>0.9157</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>ltp00087a23@dx769b16dffc541aba00</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1989,22 +1419,6 @@
           <t>3周前</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>0.8192</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>ltp00087a24@dx769b16dffc541aba00</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2032,22 +1446,6 @@
           <t>3周前</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>0.7523</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>ltp00087a25@dx769b16dffc541aba00</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2075,16 +1473,6 @@
           <t>3周前</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>ltp00087a31@dx769b16dffc551aba00</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2112,22 +1500,6 @@
           <t>4周前</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>0.601</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>ltp00087a39@dx769b16dffc551aba00</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2155,22 +1527,6 @@
           <t>4周前</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>0.7998</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>ltp00087a55@dx769b16dffc551aba00</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2198,22 +1554,6 @@
           <t>4周前</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>0.837</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>ltp00087a63@dx769b16dffc551aba00</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2241,22 +1581,6 @@
           <t>1月前</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>0.7706</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>ltp00087a64@dx769b16dffc551aba00</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2284,22 +1608,6 @@
           <t>1月前</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>0.8889</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>ltp00087a67@dx769b16dffc561aba00</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2327,22 +1635,6 @@
           <t>1月前</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>0.5779</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>ltp00087a6a@dx769b16dffc561aba00</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2370,22 +1662,6 @@
           <t>1月前</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>0.5518</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>ltp00087a6b@dx769b16dffc561aba00</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2413,22 +1689,6 @@
           <t>1月前</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>0.4485</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>ltp00087a6c@dx769b16dffc561aba00</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2456,22 +1716,6 @@
           <t>1月前</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>0.1465</v>
-      </c>
-      <c r="H48" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>ltp00087a6d@dx769b16dffc561aba00</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2499,22 +1743,6 @@
           <t>1月前</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>0.6717</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>ltp00087a6e@dx769b16dffc571aba00</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2542,22 +1770,6 @@
           <t>1月前</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>0.2177</v>
-      </c>
-      <c r="H50" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>ltp00087a6f@dx769b16dffc571aba00</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2585,22 +1797,6 @@
           <t>1月前</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>0.8693</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>ltp00087a72@dx769b16dffc571aba00</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2628,22 +1824,6 @@
           <t>1月前</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
-        <v>0.3306</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>ltp00087a73@dx769b16dffc571aba00</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2671,22 +1851,6 @@
           <t>1月前</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
-        <v>0.9156</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>ltp00087a75@dx769b16dffc581aba00</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2714,22 +1878,6 @@
           <t>1月前</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>0.8467</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>ltp00087a77@dx769b16dffc581aba00</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2757,22 +1905,6 @@
           <t>1月前</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
-        <v>0.5852000000000001</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>ltp00087a79@dx769b16dffc581aba00</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2800,22 +1932,6 @@
           <t>1月前</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G56" t="n">
-        <v>0.8242</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>ltp00087a7a@dx769b16dffc581aba00</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2843,22 +1959,6 @@
           <t>1月前</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G57" t="n">
-        <v>0.7167</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>ltp00087a7b@dx769b16dffc581aba00</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2886,22 +1986,6 @@
           <t>1月前</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G58" t="n">
-        <v>0.6788</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>ltp00087a7c@dx769b16dffc591aba00</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2929,22 +2013,6 @@
           <t>1月前</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G59" t="n">
-        <v>0.3759</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>ltp00087a7e@dx769b16dffc591aba00</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2972,22 +2040,6 @@
           <t>1月前</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
-        <v>0.9061</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>ltp00087a7f@dx769b16dffc591aba00</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3015,22 +2067,6 @@
           <t>1月前</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
-        <v>0.1598</v>
-      </c>
-      <c r="H61" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>ltp00087a87@dx769b16dffc591aba00</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3058,22 +2094,6 @@
           <t>1月前</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G62" t="n">
-        <v>0.8954</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>ltp00087a93@dx769b16dffc5a1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3101,22 +2121,6 @@
           <t>1月前</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
-        <v>0.268</v>
-      </c>
-      <c r="H63" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>ltp00087aa0@dx769b16dffc5a1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3144,22 +2148,6 @@
           <t>1月前</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G64" t="n">
-        <v>0.8042</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>ltp00087aa2@dx769b16dffc5a1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3187,22 +2175,6 @@
           <t>1月前</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G65" t="n">
-        <v>0.8606</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>ltp00087aa4@dx769b16dffc5a1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3230,22 +2202,6 @@
           <t>2月前</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G66" t="n">
-        <v>0.3381</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>ltp00087aa5@dx769b16dffc5b1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3273,22 +2229,6 @@
           <t>2月前</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G67" t="n">
-        <v>0.641</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>ltp00087aa6@dx769b16dffc5b1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3316,22 +2256,6 @@
           <t>2月前</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G68" t="n">
-        <v>0.8974</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>ltp00087aa7@dx769b16dffc5b1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3359,22 +2283,6 @@
           <t>2月前</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G69" t="n">
-        <v>0.6819</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>ltp00087aa8@dx769b16dffc5b1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3402,22 +2310,6 @@
           <t>2月前</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G70" t="n">
-        <v>0.9239000000000001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>ltp00087aac@dx769b16dffc5b1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3445,22 +2337,6 @@
           <t>2月前</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G71" t="n">
-        <v>0.6781</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>ltp00087aae@dx769b16dffc5c1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3488,22 +2364,6 @@
           <t>2月前</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G72" t="n">
-        <v>0.1459</v>
-      </c>
-      <c r="H72" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>ltp00087aaf@dx769b16dffc5c1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3531,22 +2391,6 @@
           <t>2月前</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G73" t="n">
-        <v>0.8595</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>ltp00087ab0@dx769b16dffc5c1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3574,22 +2418,6 @@
           <t>2月前</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G74" t="n">
-        <v>0.9072</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>ltp00087ab1@dx769b16dffc5c1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3617,22 +2445,6 @@
           <t>2月前</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G75" t="n">
-        <v>0.7387</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>ltp00087ab3@dx769b16dffc5d1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3660,22 +2472,6 @@
           <t>2月前</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G76" t="n">
-        <v>0.1768</v>
-      </c>
-      <c r="H76" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>ltp00087ab5@dx769b16dffc5d1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3703,22 +2499,6 @@
           <t>2月前</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G77" t="n">
-        <v>0.849</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>ltp00087ab7@dx769b16dffc5d1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3746,22 +2526,6 @@
           <t>2月前</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G78" t="n">
-        <v>0.852</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>ltp00087aba@dx769b16dffc5e1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3789,22 +2553,6 @@
           <t>2月前</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G79" t="n">
-        <v>0.2151</v>
-      </c>
-      <c r="H79" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>ltp00087abc@dx769b16dffc5e1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3832,22 +2580,6 @@
           <t>2月前</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G80" t="n">
-        <v>0.9089</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>ltp00087abe@dx769b16dffc5e1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3875,22 +2607,6 @@
           <t>2月前</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G81" t="n">
-        <v>0.1818</v>
-      </c>
-      <c r="H81" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>ltp00087ac0@dx769b16dffc5e1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3918,22 +2634,6 @@
           <t>2月前</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G82" t="n">
-        <v>0.7464</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>ltp00087ac2@dx769b16dffc5f1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3961,22 +2661,6 @@
           <t>2月前</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G83" t="n">
-        <v>0.9112</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>ltp00087ac3@dx769b16dffc5f1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4004,22 +2688,6 @@
           <t>2月前</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G84" t="n">
-        <v>0.9149</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>ltp00087ac4@dx769b16dffc5f1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4047,22 +2715,6 @@
           <t>3月前</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G85" t="n">
-        <v>0.5014</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>ltp00087ac5@dx769b16dffc5f1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4090,22 +2742,6 @@
           <t>3月前</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G86" t="n">
-        <v>0.5019</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>ltp00087ac7@dx769b16dffc5f1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4133,22 +2769,6 @@
           <t>3月前</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G87" t="n">
-        <v>0.7226</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>ltp00087ac9@dx769b16dffc601aba00</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4176,22 +2796,6 @@
           <t>3月前</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G88" t="n">
-        <v>0.9088000000000001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>ltp00087acb@dx769b16dffc601aba00</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4219,22 +2823,6 @@
           <t>3月前</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G89" t="n">
-        <v>0.8578</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>ltp00087acd@dx769b16dffc601aba00</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4262,22 +2850,6 @@
           <t>3月前</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G90" t="n">
-        <v>0.2775</v>
-      </c>
-      <c r="H90" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>ltp00087acf@dx769b16dffc601aba00</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4305,22 +2877,6 @@
           <t>3月前</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G91" t="n">
-        <v>0.9005</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>ltp00087ad2@dx769b16dffc601aba00</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4348,22 +2904,6 @@
           <t>3月前</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G92" t="n">
-        <v>0.8290999999999999</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>ltp00087ad3@dx769b16dffc611aba00</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4391,22 +2931,6 @@
           <t>3月前</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G93" t="n">
-        <v>0.4546</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>ltp00087ad4@dx769b16dffc611aba00</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4434,22 +2958,6 @@
           <t>3月前</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G94" t="n">
-        <v>0.3783</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>ltp00087ad5@dx769b16dffc611aba00</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4477,22 +2985,6 @@
           <t>3月前</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G95" t="n">
-        <v>0.6471</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>ltp00087ad7@dx769b16dffc611aba00</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4520,22 +3012,6 @@
           <t>3月前</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G96" t="n">
-        <v>0.7727000000000001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>ltp00087ad8@dx769b16dffc611aba00</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4563,22 +3039,6 @@
           <t>3月前</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G97" t="n">
-        <v>0.5496</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>ltp00087ada@dx769b16dffc621aba00</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4606,22 +3066,6 @@
           <t>3月前</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G98" t="n">
-        <v>0.3365</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>ltp00087adb@dx769b16dffc621aba00</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4649,24 +3093,9 @@
           <t>3月前</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G99" t="n">
-        <v>0.2488</v>
-      </c>
-      <c r="H99" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>ltp00087adc@dx769b16dffc621aba00</t>
-        </is>
-      </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr"/>
       <c r="B100" t="inlineStr">
         <is>
           <t>@姚妹儿 查了半天就这个最好了，我是不是学习摄影了该</t>
@@ -4685,22 +3114,6 @@
       <c r="E100" t="inlineStr">
         <is>
           <t>3月前</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G100" t="n">
-        <v>0.6544</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>ltp00087ade@dx769b16dffc631aba00</t>
         </is>
       </c>
     </row>
@@ -4730,22 +3143,6 @@
           <t>3月前</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G101" t="n">
-        <v>0.386</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>ltp00087ae0@dx769b16dffc631aba00</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4773,22 +3170,6 @@
           <t>3月前</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G102" t="n">
-        <v>0.7057</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>ltp00087ae1@dx769b16dffc641aba00</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4816,22 +3197,6 @@
           <t>3月前</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G103" t="n">
-        <v>0.3861</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>ltp00087ae4@dx769b16dffc641aba00</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4859,16 +3224,6 @@
           <t>3月前</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>invalid parameter|invalid text</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>ltp00087ae6@dx769b16dffc641aba00</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4896,22 +3251,6 @@
           <t>3月前</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G105" t="n">
-        <v>0.2326</v>
-      </c>
-      <c r="H105" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>ltp00087ae7@dx769b16dffc641aba00</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4939,22 +3278,6 @@
           <t>3月前</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G106" t="n">
-        <v>0.1383</v>
-      </c>
-      <c r="H106" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>ltp00087ae8@dx769b16dffc641aba00</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4982,22 +3305,6 @@
           <t>3月前</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G107" t="n">
-        <v>0.591</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>ltp00087aea@dx769b16dffc651aba00</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5025,22 +3332,6 @@
           <t>3月前</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G108" t="n">
-        <v>0.5706</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>ltp00087aec@dx769b16dffc651aba00</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5068,22 +3359,6 @@
           <t>4月前</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G109" t="n">
-        <v>0.9015</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>ltp00087aed@dx769b16dffc651aba00</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5111,22 +3386,6 @@
           <t>4月前</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G110" t="n">
-        <v>0.4356</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>ltp00087aef@dx769b16dffc651aba00</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5154,22 +3413,6 @@
           <t>4月前</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G111" t="n">
-        <v>0.8493000000000001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>ltp00087af0@dx769b16dffc661aba00</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5197,22 +3440,6 @@
           <t>4月前</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G112" t="n">
-        <v>0.9206</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>ltp00087af2@dx769b16dffc661aba00</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5240,22 +3467,6 @@
           <t>4月前</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G113" t="n">
-        <v>0.4943</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>ltp00087af3@dx769b16dffc661aba00</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5283,22 +3494,6 @@
           <t>4月前</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G114" t="n">
-        <v>0.9212</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>ltp00087af4@dx769b16dffc661aba00</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5326,22 +3521,6 @@
           <t>4月前</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G115" t="n">
-        <v>0.7522</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>ltp00087af7@dx769b16dffc661aba00</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5369,22 +3548,6 @@
           <t>4月前</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G116" t="n">
-        <v>0.8945</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>ltp00087af8@dx769b16dffc671aba00</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5412,22 +3575,6 @@
           <t>4月前</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G117" t="n">
-        <v>0.593</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>ltp00087af9@dx769b16dffc671aba00</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5455,22 +3602,6 @@
           <t>4月前</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G118" t="n">
-        <v>0.3042</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>ltp00087afa@dx769b16dffc671aba00</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5498,22 +3629,6 @@
           <t>4月前</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G119" t="n">
-        <v>0.3223</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>ltp00087afc@dx769b16dffc671aba00</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5541,22 +3656,6 @@
           <t>4月前</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G120" t="n">
-        <v>0.8214</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>ltp00087afd@dx769b16dffc681aba00</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5584,22 +3683,6 @@
           <t>4月前</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G121" t="n">
-        <v>0.9004</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>ltp00087afe@dx769b16dffc681aba00</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5627,22 +3710,6 @@
           <t>4月前</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G122" t="n">
-        <v>0.3666</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>ltp00087aff@dx769b16dffc681aba00</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5670,22 +3737,6 @@
           <t>4月前</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G123" t="n">
-        <v>0.9009</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>ltp00087b01@dx769b16dffc691aba00</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5713,22 +3764,6 @@
           <t>4月前</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G124" t="n">
-        <v>0.8129999999999999</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>ltp00087b04@dx769b16dffc691aba00</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5756,16 +3791,6 @@
           <t>4月前</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>invalid parameter|invalid text</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>ltp00087b05@dx769b16dffc691aba00</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5793,22 +3818,6 @@
           <t>4月前</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G126" t="n">
-        <v>0.3652</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>ltp00087b06@dx769b16dffc691aba00</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5836,22 +3845,6 @@
           <t>4月前</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G127" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>ltp00087b09@dx769b16dffc691aba00</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5879,22 +3872,6 @@
           <t>4月前</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G128" t="n">
-        <v>0.917</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>ltp00087b0b@dx769b16dffc691aba00</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5922,22 +3899,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G129" t="n">
-        <v>0.8787</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>ltp00087b0e@dx769b16dffc6a1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5965,22 +3926,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G130" t="n">
-        <v>0.4787</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>ltp00087b11@dx769b16dffc6a1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -6008,16 +3953,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>invalid parameter|invalid text</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>ltp00087b12@dx769b16dffc6a1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -6045,22 +3980,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G132" t="n">
-        <v>0.6064000000000001</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>ltp00087b14@dx769b16dffc6a1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -6088,16 +4007,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>invalid parameter|invalid text</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>ltp00087b1f@dx769b16dffc6a1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -6125,16 +4034,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>ltp00087b24@dx769b16dffc6a1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -6162,24 +4061,9 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G135" t="n">
-        <v>0.7804</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>ltp00087b29@dx769b16dffc6a1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr"/>
       <c r="B136" t="inlineStr">
         <is>
           <t>@云雀 我也想带着头纱跟你去海边</t>
@@ -6198,22 +4082,6 @@
       <c r="E136" t="inlineStr">
         <is>
           <t>5月前</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G136" t="n">
-        <v>0.7867</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>ltp00087b35@dx769b16dffc6b1aba00</t>
         </is>
       </c>
     </row>
@@ -6243,22 +4111,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G137" t="n">
-        <v>0.3259</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>ltp00087b37@dx769b16dffc6b1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6286,22 +4138,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G138" t="n">
-        <v>0.6025</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>ltp00087b38@dx769b16dffc6b1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6329,22 +4165,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G139" t="n">
-        <v>0.8985</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>ltp00087b39@dx769b16dffc6b1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6372,22 +4192,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G140" t="n">
-        <v>0.9223</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>ltp00087b3c@dx769b16dffc6c1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6415,22 +4219,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G141" t="n">
-        <v>0.4352</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>ltp00087b3d@dx769b16dffc6c1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6458,22 +4246,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G142" t="n">
-        <v>0.6887</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>ltp00087b40@dx769b16dffc6d1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6501,22 +4273,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G143" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>ltp00087b41@dx769b16dffc6d1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6544,22 +4300,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G144" t="n">
-        <v>0.6998</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>ltp00087b43@dx769b16dffc6d1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6587,22 +4327,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G145" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>ltp00087b45@dx769b16dffc6e1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6630,16 +4354,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>invalid parameter|invalid text</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>ltp00087b46@dx769b16dffc6e1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6667,22 +4381,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G147" t="n">
-        <v>0.1781</v>
-      </c>
-      <c r="H147" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>ltp00087b47@dx769b16dffc6e1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6710,22 +4408,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G148" t="n">
-        <v>0.8558</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>ltp00087b48@dx769b16dffc6e1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6753,22 +4435,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G149" t="n">
-        <v>0.7812</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>ltp00087b49@dx769b16dffc6e1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6796,22 +4462,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G150" t="n">
-        <v>0.8863</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>ltp00087b4a@dx769b16dffc6f1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6839,22 +4489,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G151" t="n">
-        <v>0.9147</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>ltp00087b4b@dx769b16dffc6f1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6882,22 +4516,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G152" t="n">
-        <v>0.7897999999999999</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>ltp00087b4d@dx769b16dffc6f1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -6925,22 +4543,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G153" t="n">
-        <v>0.3976</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>ltp00087b4e@dx769b16dffc6f1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6968,22 +4570,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G154" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>ltp00087b51@dx769b16dffc6f1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -7011,22 +4597,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G155" t="n">
-        <v>0.9137999999999999</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>ltp00087b52@dx769b16dffc701aba00</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -7054,22 +4624,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G156" t="n">
-        <v>0.1695</v>
-      </c>
-      <c r="H156" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>ltp00087b54@dx769b16dffc701aba00</t>
-        </is>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -7097,22 +4651,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G157" t="n">
-        <v>0.1631</v>
-      </c>
-      <c r="H157" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>ltp00087b55@dx769b16dffc701aba00</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -7140,22 +4678,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G158" t="n">
-        <v>0.8216</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>ltp00087b57@dx769b16dffc701aba00</t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -7183,22 +4705,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G159" t="n">
-        <v>0.9015</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>ltp00087b59@dx769b16dffc701aba00</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -7226,22 +4732,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G160" t="n">
-        <v>0.5665</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>ltp00087b5b@dx769b16dffc711aba00</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -7269,22 +4759,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G161" t="n">
-        <v>0.8663999999999999</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>ltp00087b5d@dx769b16dffc711aba00</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -7312,22 +4786,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G162" t="n">
-        <v>0.4364</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>ltp00087b5f@dx769b16dffc711aba00</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -7355,24 +4813,9 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G163" t="n">
-        <v>0.3565</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>ltp00087b60@dx769b16dffc711aba00</t>
-        </is>
-      </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr"/>
       <c r="B164" t="inlineStr">
         <is>
           <t>@锕故 给我买头纱</t>
@@ -7391,22 +4834,6 @@
       <c r="E164" t="inlineStr">
         <is>
           <t>5月前</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G164" t="n">
-        <v>0.2383</v>
-      </c>
-      <c r="H164" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>ltp00087b61@dx769b16dffc711aba00</t>
         </is>
       </c>
     </row>
@@ -7436,22 +4863,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G165" t="n">
-        <v>0.373</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>ltp00087b62@dx769b16dffc721aba00</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -7479,22 +4890,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G166" t="n">
-        <v>0.9159</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>ltp00087b64@dx769b16dffc721aba00</t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7522,22 +4917,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G167" t="n">
-        <v>0.8462</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>ltp00087b67@dx769b16dffc721aba00</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7565,22 +4944,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G168" t="n">
-        <v>0.4753</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>ltp00087b69@dx769b16dffc721aba00</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -7608,22 +4971,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G169" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="H169" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>ltp00087b6b@dx769b16dffc721aba00</t>
-        </is>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -7651,22 +4998,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G170" t="n">
-        <v>0.2714</v>
-      </c>
-      <c r="H170" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>ltp00087b6d@dx769b16dffc731aba00</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -7694,22 +5025,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G171" t="n">
-        <v>0.4027</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>ltp00087b6e@dx769b16dffc731aba00</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -7737,22 +5052,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G172" t="n">
-        <v>0.4796</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>ltp00087b6f@dx769b16dffc731aba00</t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -7780,22 +5079,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G173" t="n">
-        <v>0.8869</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>ltp00087b71@dx769b16dffc731aba00</t>
-        </is>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -7823,22 +5106,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G174" t="n">
-        <v>0.8457</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>ltp00087b72@dx769b16dffc731aba00</t>
-        </is>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -7866,22 +5133,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G175" t="n">
-        <v>0.4732</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>ltp00087b73@dx769b16dffc731aba00</t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -7909,22 +5160,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G176" t="n">
-        <v>0.9123</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>ltp00087b74@dx769b16dffc741aba00</t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -7952,22 +5187,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G177" t="n">
-        <v>0.9097</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>ltp00087b75@dx769b16dffc741aba00</t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -7995,22 +5214,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G178" t="n">
-        <v>0.7514999999999999</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>ltp00087b77@dx769b16dffc741aba00</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -8038,22 +5241,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G179" t="n">
-        <v>0.5982</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>ltp00087b79@dx769b16dffc751aba00</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -8081,22 +5268,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G180" t="n">
-        <v>0.906</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>ltp00087b7a@dx769b16dffc751aba00</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -8124,22 +5295,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G181" t="n">
-        <v>0.9258999999999999</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>ltp00087b7b@dx769b16dffc751aba00</t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -8167,22 +5322,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G182" t="n">
-        <v>0.7605</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>ltp00087b7d@dx769b16dffc761aba00</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -8210,24 +5349,9 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G183" t="n">
-        <v>0.5491</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>ltp00087b7f@dx769b16dffc761aba00</t>
-        </is>
-      </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr"/>
       <c r="B184" t="inlineStr">
         <is>
           <t>@z.' 幕了</t>
@@ -8246,22 +5370,6 @@
       <c r="E184" t="inlineStr">
         <is>
           <t>5月前</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G184" t="n">
-        <v>0.1827</v>
-      </c>
-      <c r="H184" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>ltp00087b81@dx769b16dffc761aba00</t>
         </is>
       </c>
     </row>
@@ -8291,22 +5399,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G185" t="n">
-        <v>0.586</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>ltp00087b82@dx769b16dffc761aba00</t>
-        </is>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -8334,22 +5426,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G186" t="n">
-        <v>0.9018</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>ltp00087b83@dx769b16dffc761aba00</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -8377,22 +5453,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G187" t="n">
-        <v>0.8132</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>ltp00087b84@dx769b16dffc771aba00</t>
-        </is>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -8420,22 +5480,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G188" t="n">
-        <v>0.8938</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>ltp00087b86@dx769b16dffc771aba00</t>
-        </is>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -8463,22 +5507,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G189" t="n">
-        <v>0.8921</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>ltp00087b88@dx769b16dffc771aba00</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -8506,22 +5534,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G190" t="n">
-        <v>0.7403</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>ltp00087b8a@dx769b16dffc771aba00</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -8549,22 +5561,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G191" t="n">
-        <v>0.9216</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="inlineStr">
-        <is>
-          <t>ltp00087b8b@dx769b16dffc771aba00</t>
-        </is>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -8592,22 +5588,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G192" t="n">
-        <v>0.9062</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="inlineStr">
-        <is>
-          <t>ltp00087b8c@dx769b16dffc771aba00</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -8635,22 +5615,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G193" t="n">
-        <v>0.3382</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr">
-        <is>
-          <t>ltp00087b8e@dx769b16dffc781aba00</t>
-        </is>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -8678,22 +5642,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G194" t="n">
-        <v>0.8365</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="inlineStr">
-        <is>
-          <t>ltp00087b91@dx769b16dffc781aba00</t>
-        </is>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -8721,22 +5669,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G195" t="n">
-        <v>0.4323</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr">
-        <is>
-          <t>ltp00087b93@dx769b16dffc781aba00</t>
-        </is>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -8744,6 +5676,7 @@
           <t>907.Y</t>
         </is>
       </c>
+      <c r="B196" t="inlineStr"/>
       <c r="C196" t="inlineStr">
         <is>
           <t>Null</t>
@@ -8757,16 +5690,6 @@
       <c r="E196" t="inlineStr">
         <is>
           <t>5月前</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>invalid parameter|invalid text</t>
-        </is>
-      </c>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>ltp00087b94@dx769b16dffc781aba00</t>
         </is>
       </c>
     </row>
@@ -8796,22 +5719,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G197" t="n">
-        <v>0.4604</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr">
-        <is>
-          <t>ltp00087b95@dx769b16dffc781aba00</t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -8839,16 +5746,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>invalid parameter|invalid text</t>
-        </is>
-      </c>
-      <c r="I198" t="inlineStr">
-        <is>
-          <t>ltp00087b97@dx769b16dffc791aba00</t>
-        </is>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -8876,22 +5773,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G199" t="n">
-        <v>0.8949</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t>ltp00087b98@dx769b16dffc791aba00</t>
-        </is>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -8920,22 +5801,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G200" t="n">
-        <v>0.823</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="inlineStr">
-        <is>
-          <t>ltp00087b9b@dx769b16dffc791aba00</t>
-        </is>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -8963,22 +5828,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G201" t="n">
-        <v>0.4235</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr">
-        <is>
-          <t>ltp00087b9f@dx769b16dffc791aba00</t>
-        </is>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -9006,22 +5855,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G202" t="n">
-        <v>0.8491</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="inlineStr">
-        <is>
-          <t>ltp00087ba0@dx769b16dffc791aba00</t>
-        </is>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -9049,22 +5882,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G203" t="n">
-        <v>0.8354</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="inlineStr">
-        <is>
-          <t>ltp00087ba1@dx769b16dffc791aba00</t>
-        </is>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -9092,22 +5909,6 @@
           <t>5月前</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G204" t="n">
-        <v>0.8914</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="inlineStr">
-        <is>
-          <t>ltp00087ba2@dx769b16dffc7a1aba00</t>
-        </is>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -9133,22 +5934,6 @@
       <c r="E205" t="inlineStr">
         <is>
           <t>5月前</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="G205" t="n">
-        <v>0.8484</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="inlineStr">
-        <is>
-          <t>ltp00087ba5@dx769b16dffc7a1aba00</t>
         </is>
       </c>
     </row>
